--- a/resources/experiment 2/metrics/MAPE/incidence/Edema macular diabético (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Edema macular diabético (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8946733865695069</v>
+        <v>8946733865695072</v>
       </c>
       <c r="C2" t="n">
-        <v>8946733865695069</v>
+        <v>8946733865695065</v>
       </c>
       <c r="D2" t="n">
-        <v>8946733865695069</v>
+        <v>8946733865695068</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21142248399865.14</v>
+        <v>18549871614683.46</v>
       </c>
       <c r="C3" t="n">
-        <v>21142248399865.14</v>
+        <v>0.02680288239301544</v>
       </c>
       <c r="D3" t="n">
-        <v>21142248399865.14</v>
+        <v>1483623511851067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124071330495081.3</v>
+        <v>0.03196617862036957</v>
       </c>
       <c r="C4" t="n">
-        <v>124074912071593.4</v>
+        <v>0.0320466541469181</v>
       </c>
       <c r="D4" t="n">
-        <v>124074912071593.4</v>
+        <v>388304397165756.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4351171866452378</v>
+        <v>32035604183668.41</v>
       </c>
       <c r="C5" t="n">
-        <v>4351171866452378</v>
+        <v>42383725269985.56</v>
       </c>
       <c r="D5" t="n">
-        <v>4351171866452378</v>
+        <v>472128229414579.5</v>
       </c>
     </row>
   </sheetData>
